--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="283">
   <si>
     <t>Start</t>
   </si>
@@ -904,7 +904,7 @@
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,9 +1472,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,9 +1960,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2267,10 +2267,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2822,16 +2822,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2734375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5234375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.34765625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2889,19 +2889,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3000,8 +3000,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3411,13 +3411,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="3" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3954,18 +3954,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
